--- a/Python/data.xlsx
+++ b/Python/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NPC 2.0\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D795E1D-F3AB-4DA3-A399-8AD9A9EF9DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE58161-189E-4B48-A89F-8ADA894BF36D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="3090" windowWidth="14265" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="8040" windowWidth="14265" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_test" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -980,11 +980,11 @@
       </c>
       <c r="B1">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1006,11 +1006,11 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="B4">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" ca="1" si="1">RANDBETWEEN(4,6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B6">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="B7">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B8">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(7,10)</f>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B9">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f ca="1">RANDBETWEEN(7,10)</f>

--- a/Python/data.xlsx
+++ b/Python/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NPC 2.0\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE58161-189E-4B48-A89F-8ADA894BF36D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09B05A-7CEE-4E26-85DA-18CAF8DDE265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="8040" windowWidth="14265" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12270" yWindow="4845" windowWidth="15315" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_test" sheetId="1" r:id="rId1"/>
@@ -969,7 +969,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A7" sqref="A7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="B1">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -993,11 +993,11 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2" ca="1" si="0">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -1006,11 +1006,11 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B5">
         <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C6" ca="1" si="1">RANDBETWEEN(4,6)</f>
@@ -1045,11 +1045,11 @@
       </c>
       <c r="B6">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1084,11 +1084,11 @@
       </c>
       <c r="B9">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Python/data.xlsx
+++ b/Python/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NPC 2.0\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\git\NPC 2.0\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09B05A-7CEE-4E26-85DA-18CAF8DDE265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF419A-D398-4871-AD50-142E260314A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="4845" windowWidth="15315" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_test" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,88 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+  <si>
+    <t>台本</t>
+    <rPh sb="0" eb="2">
+      <t>ダイホン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>演技</t>
+    <rPh sb="0" eb="2">
+      <t>エンギ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>音楽</t>
+    <rPh sb="0" eb="2">
+      <t>オンガク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>舞台美術</t>
+    <rPh sb="0" eb="2">
+      <t>ブタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビジュツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Arousal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Valence</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
@@ -363,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -478,6 +560,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,9 +782,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -966,133 +1162,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <f ca="1">RANDBETWEEN(1,3)</f>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
-        <f ca="1">RANDBETWEEN(1,3)</f>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <f ca="1">RANDBETWEEN(1,5)</f>
         <v>1</v>
       </c>
-      <c r="B2">
-        <f ca="1">RANDBETWEEN(4,6)</f>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f ca="1">RANDBETWEEN(4,7)</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">RANDBETWEEN(4,8)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">RANDBETWEEN(3,6)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <f ca="1">RANDBETWEEN(3,6)</f>
         <v>6</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2" ca="1" si="0">RANDBETWEEN(1,3)</f>
+      <c r="G4" s="1">
+        <f ca="1">RANDBETWEEN(4,8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
         <v>2</v>
       </c>
+      <c r="C5" s="2">
+        <f ca="1">RANDBETWEEN(5,10)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <f ca="1">RANDBETWEEN(8,10)</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <f ca="1">RANDBETWEEN(6,10)</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <f ca="1">RANDBETWEEN(6,10)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <f ca="1">RANDBETWEEN(9,10)</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f ca="1">RANDBETWEEN(7,10)</f>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <f ca="1">RANDBETWEEN(4,8)</f>
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <f ca="1">RANDBETWEEN(3,6)</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1">RANDBETWEEN(3,6)</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <f ca="1">RANDBETWEEN(4,8)</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <f ca="1">RANDBETWEEN(4,7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f ca="1">RANDBETWEEN(8,10)</f>
         <v>10</v>
       </c>
-      <c r="C3">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+      <c r="D11" s="2">
+        <f ca="1">RANDBETWEEN(6,10)</f>
+        <v>7</v>
+      </c>
+      <c r="E11" s="2">
+        <f ca="1">RANDBETWEEN(6,10)</f>
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <f ca="1">RANDBETWEEN(8,10)</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <f ca="1">RANDBETWEEN(5,10)</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C6" ca="1" si="1">RANDBETWEEN(4,6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f ca="1">RANDBETWEEN(4,6)</f>
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f ca="1">RANDBETWEEN(7,10)</f>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f ca="1">RANDBETWEEN(7,10)</f>
-        <v>9</v>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>